--- a/database/industries/folad/kechad/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/kechad/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2825DBD-15D6-4509-9DBC-C8B2D28BA130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB7907-46DD-422B-865D-058A90AFF50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-16 (3)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-01-29 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>74352112</v>
+        <v>156393306</v>
       </c>
       <c r="E11" s="13">
-        <v>156393306</v>
+        <v>275953168</v>
       </c>
       <c r="F11" s="13">
-        <v>275953168</v>
+        <v>97562783</v>
       </c>
       <c r="G11" s="13">
-        <v>97562783</v>
+        <v>214948276</v>
       </c>
       <c r="H11" s="13">
-        <v>214948276</v>
+        <v>335612658</v>
       </c>
       <c r="I11" s="13">
-        <v>335612658</v>
+        <v>455986348</v>
       </c>
       <c r="J11" s="13">
-        <v>455986348</v>
+        <v>124061091</v>
       </c>
       <c r="K11" s="13">
-        <v>124061091</v>
+        <v>206705136</v>
       </c>
       <c r="L11" s="13">
-        <v>206705136</v>
+        <v>309375036</v>
       </c>
       <c r="M11" s="13">
-        <v>309375036</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>410501446</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-28060109</v>
+        <v>-54002372</v>
       </c>
       <c r="E12" s="11">
-        <v>-54002372</v>
+        <v>-92890121</v>
       </c>
       <c r="F12" s="11">
-        <v>-92890121</v>
+        <v>-32002681</v>
       </c>
       <c r="G12" s="11">
-        <v>-32002681</v>
+        <v>-71559467</v>
       </c>
       <c r="H12" s="11">
-        <v>-71559467</v>
+        <v>-133839114</v>
       </c>
       <c r="I12" s="11">
-        <v>-133839114</v>
+        <v>-166390101</v>
       </c>
       <c r="J12" s="11">
-        <v>-166390101</v>
+        <v>-51932293</v>
       </c>
       <c r="K12" s="11">
-        <v>-51932293</v>
+        <v>-105993442</v>
       </c>
       <c r="L12" s="11">
-        <v>-105993442</v>
+        <v>-171529342</v>
       </c>
       <c r="M12" s="11">
-        <v>-171529342</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-219085957</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>46292003</v>
+        <v>102390934</v>
       </c>
       <c r="E13" s="15">
-        <v>102390934</v>
+        <v>168212439</v>
       </c>
       <c r="F13" s="15">
-        <v>168212439</v>
+        <v>65560102</v>
       </c>
       <c r="G13" s="15">
-        <v>65560102</v>
+        <v>143388809</v>
       </c>
       <c r="H13" s="15">
-        <v>143388809</v>
+        <v>201773544</v>
       </c>
       <c r="I13" s="15">
-        <v>201773544</v>
+        <v>289596247</v>
       </c>
       <c r="J13" s="15">
-        <v>289596247</v>
+        <v>72128798</v>
       </c>
       <c r="K13" s="15">
-        <v>72128798</v>
+        <v>100711694</v>
       </c>
       <c r="L13" s="15">
-        <v>100711694</v>
+        <v>137845694</v>
       </c>
       <c r="M13" s="15">
-        <v>137845694</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>191415489</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-310525</v>
+        <v>-518102</v>
       </c>
       <c r="E14" s="11">
-        <v>-518102</v>
+        <v>-3172788</v>
       </c>
       <c r="F14" s="11">
-        <v>-3172788</v>
+        <v>-298837</v>
       </c>
       <c r="G14" s="11">
-        <v>-298837</v>
+        <v>-3267599</v>
       </c>
       <c r="H14" s="11">
-        <v>-3267599</v>
+        <v>-4873350</v>
       </c>
       <c r="I14" s="11">
-        <v>-4873350</v>
+        <v>-7573572</v>
       </c>
       <c r="J14" s="11">
-        <v>-7573572</v>
+        <v>-1943227</v>
       </c>
       <c r="K14" s="11">
-        <v>-1943227</v>
+        <v>-4076872</v>
       </c>
       <c r="L14" s="11">
-        <v>-4076872</v>
+        <v>-6353624</v>
       </c>
       <c r="M14" s="11">
-        <v>-6353624</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-9950238</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,43 +1039,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>45981478</v>
+        <v>101872832</v>
       </c>
       <c r="E17" s="15">
-        <v>101872832</v>
+        <v>165039651</v>
       </c>
       <c r="F17" s="15">
-        <v>165039651</v>
+        <v>65261265</v>
       </c>
       <c r="G17" s="15">
-        <v>65261265</v>
+        <v>140121210</v>
       </c>
       <c r="H17" s="15">
-        <v>140121210</v>
+        <v>196900194</v>
       </c>
       <c r="I17" s="15">
-        <v>196900194</v>
+        <v>282022675</v>
       </c>
       <c r="J17" s="15">
-        <v>282022675</v>
+        <v>70185571</v>
       </c>
       <c r="K17" s="15">
-        <v>70185571</v>
+        <v>96634822</v>
       </c>
       <c r="L17" s="15">
-        <v>96634822</v>
+        <v>131492070</v>
       </c>
       <c r="M17" s="15">
-        <v>131492070</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>181465251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>-59830</v>
       </c>
       <c r="F18" s="11">
-        <v>-59830</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
@@ -1110,151 +1111,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1294513</v>
+        <v>1753317</v>
       </c>
       <c r="E19" s="13">
-        <v>1753317</v>
+        <v>5561030</v>
       </c>
       <c r="F19" s="13">
-        <v>5561030</v>
+        <v>2579920</v>
       </c>
       <c r="G19" s="13">
-        <v>2579920</v>
+        <v>4975823</v>
       </c>
       <c r="H19" s="13">
-        <v>4975823</v>
+        <v>8265658</v>
       </c>
       <c r="I19" s="13">
-        <v>8265658</v>
+        <v>11181062</v>
       </c>
       <c r="J19" s="13">
-        <v>11181063</v>
+        <v>3606165</v>
       </c>
       <c r="K19" s="13">
-        <v>3606165</v>
+        <v>7995582</v>
       </c>
       <c r="L19" s="13">
-        <v>7995582</v>
+        <v>17740577</v>
       </c>
       <c r="M19" s="13">
-        <v>17740577</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23002071</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>47216161</v>
+        <v>103566319</v>
       </c>
       <c r="E20" s="17">
-        <v>103566319</v>
+        <v>185391459</v>
       </c>
       <c r="F20" s="17">
-        <v>185391459</v>
+        <v>67841185</v>
       </c>
       <c r="G20" s="17">
-        <v>67841185</v>
+        <v>145097033</v>
       </c>
       <c r="H20" s="17">
-        <v>145097033</v>
+        <v>205165852</v>
       </c>
       <c r="I20" s="17">
-        <v>205165852</v>
+        <v>293203737</v>
       </c>
       <c r="J20" s="17">
-        <v>293203738</v>
+        <v>73791736</v>
       </c>
       <c r="K20" s="17">
-        <v>73791736</v>
+        <v>104630404</v>
       </c>
       <c r="L20" s="17">
-        <v>104630404</v>
+        <v>149232647</v>
       </c>
       <c r="M20" s="17">
-        <v>149232647</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>204467322</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-4024343</v>
+        <v>-9037582</v>
       </c>
       <c r="E21" s="13">
-        <v>-9037582</v>
+        <v>-14458679</v>
       </c>
       <c r="F21" s="13">
-        <v>-14458679</v>
+        <v>-7711812</v>
       </c>
       <c r="G21" s="13">
-        <v>-7711812</v>
+        <v>-16148427</v>
       </c>
       <c r="H21" s="13">
-        <v>-16148427</v>
+        <v>-22807242</v>
       </c>
       <c r="I21" s="13">
-        <v>-22807242</v>
+        <v>-23726843</v>
       </c>
       <c r="J21" s="13">
-        <v>-23726843</v>
+        <v>-4852773</v>
       </c>
       <c r="K21" s="13">
-        <v>-4852773</v>
+        <v>-8583432</v>
       </c>
       <c r="L21" s="13">
-        <v>-8583432</v>
+        <v>-9083625</v>
       </c>
       <c r="M21" s="13">
-        <v>-9083625</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>43191818</v>
+        <v>94528737</v>
       </c>
       <c r="E22" s="17">
-        <v>94528737</v>
+        <v>170932780</v>
       </c>
       <c r="F22" s="17">
-        <v>170932780</v>
+        <v>60129373</v>
       </c>
       <c r="G22" s="17">
-        <v>60129373</v>
+        <v>128948606</v>
       </c>
       <c r="H22" s="17">
-        <v>128948606</v>
+        <v>182358610</v>
       </c>
       <c r="I22" s="17">
-        <v>182358610</v>
+        <v>269476894</v>
       </c>
       <c r="J22" s="17">
-        <v>269476895</v>
+        <v>68938963</v>
       </c>
       <c r="K22" s="17">
-        <v>68938963</v>
+        <v>96046972</v>
       </c>
       <c r="L22" s="17">
-        <v>96046972</v>
+        <v>140149022</v>
       </c>
       <c r="M22" s="17">
-        <v>140149022</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>204467322</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>43191818</v>
+        <v>94528737</v>
       </c>
       <c r="E24" s="17">
-        <v>94528737</v>
+        <v>170932780</v>
       </c>
       <c r="F24" s="17">
-        <v>170932780</v>
+        <v>60129373</v>
       </c>
       <c r="G24" s="17">
-        <v>60129373</v>
+        <v>128948606</v>
       </c>
       <c r="H24" s="17">
-        <v>128948606</v>
+        <v>182358610</v>
       </c>
       <c r="I24" s="17">
-        <v>182358610</v>
+        <v>269476894</v>
       </c>
       <c r="J24" s="17">
-        <v>269476895</v>
+        <v>68938963</v>
       </c>
       <c r="K24" s="17">
-        <v>68938963</v>
+        <v>96046972</v>
       </c>
       <c r="L24" s="17">
-        <v>96046972</v>
+        <v>140149022</v>
       </c>
       <c r="M24" s="17">
-        <v>140149022</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>204467322</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>778</v>
+        <v>1703</v>
       </c>
       <c r="E25" s="13">
-        <v>1703</v>
+        <v>3080</v>
       </c>
       <c r="F25" s="13">
-        <v>3080</v>
+        <v>1083</v>
       </c>
       <c r="G25" s="13">
-        <v>1083</v>
+        <v>2323</v>
       </c>
       <c r="H25" s="13">
-        <v>2323</v>
+        <v>1532</v>
       </c>
       <c r="I25" s="13">
-        <v>1532</v>
+        <v>2265</v>
       </c>
       <c r="J25" s="13">
-        <v>2265</v>
+        <v>579</v>
       </c>
       <c r="K25" s="13">
-        <v>579</v>
+        <v>807</v>
       </c>
       <c r="L25" s="13">
-        <v>807</v>
+        <v>1178</v>
       </c>
       <c r="M25" s="13">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>55500000</v>
       </c>
       <c r="H26" s="11">
-        <v>55500000</v>
+        <v>119000000</v>
       </c>
       <c r="I26" s="11">
         <v>119000000</v>
@@ -1395,46 +1396,46 @@
         <v>119000000</v>
       </c>
       <c r="M26" s="11">
-        <v>119000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>192500000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="E27" s="13">
-        <v>491</v>
+        <v>630</v>
       </c>
       <c r="F27" s="13">
-        <v>888</v>
+        <v>221</v>
       </c>
       <c r="G27" s="13">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="H27" s="13">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I27" s="13">
-        <v>947</v>
+        <v>993</v>
       </c>
       <c r="J27" s="13">
-        <v>1400</v>
+        <v>254</v>
       </c>
       <c r="K27" s="13">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L27" s="13">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="M27" s="13">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
